--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="20115" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Casos de Prueba" sheetId="2" r:id="rId2"/>
     <sheet name="Juego de Datos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -48,9 +48,6 @@
     <t>Flujo Alterno 2</t>
   </si>
   <si>
-    <t>Mensaje de error</t>
-  </si>
-  <si>
     <t>Registro exitoso y mensaje de información mostrado</t>
   </si>
   <si>
@@ -124,13 +121,16 @@
   </si>
   <si>
     <t>Fidelizar y brindar buena atención a los clientes</t>
+  </si>
+  <si>
+    <t>Flujo Alterno 1 -</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,12 +140,17 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,19 +159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4BD97"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,16 +206,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -228,16 +224,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -536,80 +527,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -620,7 +612,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -639,26 +631,26 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -666,10 +658,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -693,15 +685,15 @@
         <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -726,43 +718,43 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:10" hidden="1">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -787,6 +779,7 @@
       <c r="J5" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -795,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -813,7 +806,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -821,26 +814,26 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -848,19 +841,19 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -868,24 +861,24 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -893,24 +886,24 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -918,24 +911,24 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -947,6 +940,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Fidelizar y brindar buena atención a los clientes</t>
-  </si>
-  <si>
-    <t>Flujo Alterno 1 -</t>
   </si>
 </sst>
 </file>
@@ -170,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -193,11 +190,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +251,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -560,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -788,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -843,16 +886,16 @@
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="2"/>
@@ -868,18 +911,10 @@
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -893,18 +928,10 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -918,18 +945,10 @@
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -940,6 +959,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="Casos de Prueba" sheetId="2" r:id="rId2"/>
     <sheet name="Juego de Datos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Flujo Alterno 2</t>
   </si>
   <si>
-    <t>Registro exitoso y mensaje de información mostrado</t>
-  </si>
-  <si>
     <t>Set de valores</t>
   </si>
   <si>
@@ -84,15 +81,6 @@
     <t xml:space="preserve">TC1 </t>
   </si>
   <si>
-    <t xml:space="preserve">TC2 </t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
     <t>Nombre de Proceso</t>
   </si>
   <si>
@@ -111,23 +99,111 @@
     <t>RTO</t>
   </si>
   <si>
-    <t>Impacto</t>
-  </si>
-  <si>
     <t>Muestra la información solicitada en la búsqueda</t>
   </si>
   <si>
-    <t>Proceso de atención al cliente</t>
-  </si>
-  <si>
-    <t>Fidelizar y brindar buena atención a los clientes</t>
+    <t>Codigo
+Tipo de proceso</t>
+  </si>
+  <si>
+    <t>Proceso de Gestión</t>
+  </si>
+  <si>
+    <t>Búsqueda exitosa</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Proceso de Recltamiento de personal SI</t>
+  </si>
+  <si>
+    <t>Mayor a 10 dias</t>
+  </si>
+  <si>
+    <t>1 Mes</t>
+  </si>
+  <si>
+    <t>Tipo de Proceso</t>
+  </si>
+  <si>
+    <t>Proceso de Negocio</t>
+  </si>
+  <si>
+    <t>Codigo Responsable</t>
+  </si>
+  <si>
+    <t>Saenz Gallardo, Melissa</t>
+  </si>
+  <si>
+    <t>Cod. Impacto 1</t>
+  </si>
+  <si>
+    <t>Cod. Impacto 2</t>
+  </si>
+  <si>
+    <t>Cod. Impacto 3</t>
+  </si>
+  <si>
+    <t>Cod. Impacto 4</t>
+  </si>
+  <si>
+    <t>Cod. Impacto 5</t>
+  </si>
+  <si>
+    <t>Critico</t>
+  </si>
+  <si>
+    <t>Se actualiza registro de Proceso SI</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Codigo Proceso</t>
+  </si>
+  <si>
+    <t>AAAA</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Martinez Sabogal, Isabel</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>No actualizó campo Responsable en el Listado de Consulta de Procesos</t>
+  </si>
+  <si>
+    <t>Soto Gonzales, Javier</t>
+  </si>
+  <si>
+    <t>Hasta 4 horas</t>
+  </si>
+  <si>
+    <t>Hasta 12 horas</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>No actualizó campo Responsable en el Listado de Consulta de Procesos, no se valida que se deje en blanco el Nombre del proceso</t>
+  </si>
+  <si>
+    <t>Codigo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +222,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +251,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,7 +339,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -249,17 +348,65 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,7 +418,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,78 +717,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -652,94 +799,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:17" ht="36">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -754,58 +942,96 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" hidden="1">
-      <c r="A4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" hidden="1">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>5</v>
@@ -814,14 +1040,41 @@
         <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -829,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -840,16 +1093,20 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="18" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="13" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="13" customWidth="1"/>
+    <col min="12" max="16" width="10.85546875" style="13" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="42.85546875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -857,115 +1114,235 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="36">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="L3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2" t="s">
+      <c r="M3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="24">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="18">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="36">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>10</v>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="18">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Codigo</t>
+  </si>
+  <si>
+    <t>Valores no editables</t>
+  </si>
+  <si>
+    <t>Valores N/A</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,6 +405,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,11 +420,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -871,10 +892,10 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -924,8 +945,8 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -973,8 +994,8 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1022,8 +1043,8 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1082,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1164,10 +1185,10 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1188,7 +1209,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="22" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1196,8 +1217,8 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="15" t="s">
         <v>31</v>
       </c>
@@ -1236,7 +1257,7 @@
       <c r="Q3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1244,8 +1265,8 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
@@ -1286,7 +1307,7 @@
       <c r="Q4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1294,8 +1315,8 @@
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1332,8 +1353,20 @@
       <c r="Q5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="21" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="C9" s="26"/>
+      <c r="D9" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="C10" s="28"/>
+      <c r="D10" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
@@ -11,7 +11,7 @@
     <sheet name="Casos de Prueba" sheetId="2" r:id="rId2"/>
     <sheet name="Juego de Datos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -230,18 +230,18 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="3"/>
+      <color indexed="56"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,19 +262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,40 +360,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,6 +405,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,14 +423,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +442,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -892,10 +895,10 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -945,8 +948,8 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -994,8 +997,8 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1043,8 +1046,8 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1106,14 +1109,14 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="13" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="18" style="13" customWidth="1"/>
@@ -1122,17 +1125,17 @@
     <col min="11" max="11" width="9.140625" style="13" customWidth="1"/>
     <col min="12" max="16" width="10.85546875" style="13" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="42.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
@@ -1185,10 +1188,10 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1213,12 +1216,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="36">
+    <row r="3" spans="1:18" ht="49.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="15" t="s">
         <v>31</v>
       </c>
@@ -1261,12 +1264,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="24">
+    <row r="4" spans="1:18" ht="39" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
@@ -1311,12 +1314,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="36">
+    <row r="5" spans="1:18" ht="48.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1358,14 +1361,14 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="C10" s="28"/>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="24" t="s">
         <v>61</v>
       </c>
     </row>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="63">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Valores N/A</t>
+  </si>
+  <si>
+    <t>V5</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +275,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -333,11 +342,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,22 +436,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -826,7 +858,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -895,10 +927,10 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -948,8 +980,8 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -997,8 +1029,8 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1046,8 +1078,8 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1141,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1184,17 +1216,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="26" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -1220,9 +1252,9 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="11"/>
@@ -1268,9 +1300,9 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="8"/>
@@ -1318,9 +1350,9 @@
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="8"/>
@@ -1360,6 +1392,30 @@
         <v>58</v>
       </c>
     </row>
+    <row r="6" spans="1:18" ht="31.5" customHeight="1">
+      <c r="A6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+    </row>
     <row r="9" spans="1:18">
       <c r="C9" s="23"/>
       <c r="D9" s="24" t="s">
@@ -1374,8 +1430,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -78,9 +78,6 @@
     <t>SC2 - Busqueda de Proceso satisfactorio</t>
   </si>
   <si>
-    <t xml:space="preserve">TC1 </t>
-  </si>
-  <si>
     <t>Nombre de Proceso</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>V5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC1_SI_CUS015 </t>
   </si>
 </sst>
 </file>
@@ -319,6 +319,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -342,24 +355,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,31 +436,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,7 +755,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -858,7 +852,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -881,56 +875,56 @@
         <v>2</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -976,12 +970,12 @@
         <v>5</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1025,12 +1019,12 @@
         <v>4</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1074,12 +1068,12 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1123,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1135,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1171,46 +1165,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="M1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>3</v>
@@ -1220,17 +1214,17 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="9"/>
@@ -1245,115 +1239,115 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="49.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="15">
         <v>1</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="M3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="39" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="18">
         <v>4</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="10" t="s">
+      <c r="R4" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="48.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="18">
@@ -1362,70 +1356,70 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="21" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="6" spans="1:18" ht="31.5" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
+      <c r="A6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
     </row>
     <row r="9" spans="1:18">
       <c r="C9" s="23"/>
       <c r="D9" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="C10" s="25"/>
       <c r="D10" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">TC1_SI_CUS015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -752,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -839,6 +842,11 @@
         <v>16</v>
       </c>
       <c r="F5" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1134,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -209,13 +209,25 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>HUAMANI CORDOVA, ENID</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Modificaciòn de Proceso satisfactoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +253,15 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="56"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -427,9 +446,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -448,7 +464,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,6 +474,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,11 +488,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,6 +571,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -579,6 +606,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -754,14 +782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -769,7 +797,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -783,7 +811,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -795,7 +823,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -809,7 +837,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -825,7 +853,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -843,7 +871,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -856,14 +884,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
@@ -875,7 +903,7 @@
     <col min="17" max="17" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36">
+    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -928,11 +956,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -981,9 +1009,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1030,9 +1058,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1079,9 +1107,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1139,14 +1167,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="13" customWidth="1"/>
@@ -1162,7 +1190,7 @@
     <col min="18" max="18" width="39" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" customHeight="1">
+    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,17 +1246,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -1246,17 +1274,17 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="49.5" customHeight="1">
+    <row r="3" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="26" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="11"/>
@@ -1298,13 +1326,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="39" customHeight="1">
+    <row r="4" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="27" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="8"/>
@@ -1348,13 +1376,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="48.75" customHeight="1">
+    <row r="5" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="8"/>
@@ -1394,39 +1422,65 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="31.5" customHeight="1">
+    <row r="6" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="31" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="C9" s="23"/>
-      <c r="D9" s="24" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="29">
+        <v>6</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="22"/>
+      <c r="D9" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="C10" s="25"/>
-      <c r="D10" s="24" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
         <v>60</v>
       </c>
     </row>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios" sheetId="1" r:id="rId1"/>
@@ -468,18 +468,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,6 +494,988 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3876675" y="1571625"/>
+          <a:ext cx="28575" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cmpd="sng">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="1524000"/>
+          <a:ext cx="952500" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Inicio Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>905437</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="3 Flecha curvada hacia la derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="3248025" y="1981199"/>
+          <a:ext cx="543487" cy="828676"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1060450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="5 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3946525" y="2635251"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="6 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="1952625"/>
+          <a:ext cx="952500" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" b="1"/>
+            <a:t>SI_CUS015</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="7 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="4286251"/>
+          <a:ext cx="1504950" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Fin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Caso de uso</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="8 Flecha curvada hacia la izquierda"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019551" y="2295526"/>
+          <a:ext cx="419100" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 47360"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="9 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="2743201"/>
+          <a:ext cx="1200150" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo alterno 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1012825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>187326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="10 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3898900" y="2092326"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>933451</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="11 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3479800" y="2835276"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971551</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="12 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517900" y="2044701"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="13 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="2409826"/>
+          <a:ext cx="1200150" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo alterno 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>343618</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>880583</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="15 Flecha curvada hacia la derecha"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="3229693" y="3400425"/>
+          <a:ext cx="536965" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="16 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3498850" y="4130676"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>187326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>923926</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="17 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3470275" y="3235326"/>
+          <a:ext cx="339726" cy="184149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="800"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="18 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="3695701"/>
+          <a:ext cx="1200150" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-PE" sz="1100"/>
+            <a:t>Flujo alterno 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -783,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,8 +1853,8 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -880,6 +1862,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -957,10 +1940,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1010,8 +1993,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +2042,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1108,8 +2091,8 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1250,10 +2233,10 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -1274,7 +2257,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
-      <c r="R2" s="35" t="s">
+      <c r="R2" s="31" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1282,8 +2265,8 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="26" t="s">
         <v>30</v>
       </c>
@@ -1330,8 +2313,8 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="27" t="s">
         <v>35</v>
       </c>
@@ -1380,8 +2363,8 @@
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="27" t="s">
         <v>30</v>
       </c>
@@ -1426,8 +2409,8 @@
       <c r="A6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="29" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +2451,7 @@
       <c r="Q6" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="34" t="s">
+      <c r="R6" s="30" t="s">
         <v>67</v>
       </c>
     </row>

--- a/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
+++ b/trunk/ITERACION 5/SUB ITERACION 5/CASOS DE PRUEBA/CP_CUS015_G4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="150" windowWidth="17400" windowHeight="7485"/>
@@ -226,8 +226,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,14 +254,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color indexed="62"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="4"/>
+      <color indexed="62"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -488,11 +487,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -547,62 +541,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2552700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="2 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="1026" name="2 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2886075" y="1524000"/>
-          <a:ext cx="952500" cy="482600"/>
+          <a:off x="2552700" y="1333500"/>
+          <a:ext cx="1285875" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="BCBCBC"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100"/>
+            <a:rPr lang="es-ES" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>Inicio Caso de uso</a:t>
           </a:r>
         </a:p>
@@ -657,12 +647,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -730,63 +715,70 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="6 CuadroTexto"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="1029" name="6 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4371975" y="1952625"/>
-          <a:ext cx="952500" cy="352425"/>
+          <a:off x="4248150" y="1724025"/>
+          <a:ext cx="1809750" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="9525">
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="BCBCBC"/>
           </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-PE" sz="1100" b="1"/>
-            <a:t>SI_CUS015</a:t>
+            <a:rPr lang="es-ES" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>SI_CUS015_MANTENIMIENTO DE PROCESOS</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -916,12 +908,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1281,12 +1268,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1479,7 +1461,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1553,7 +1535,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1588,7 +1569,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1764,14 +1744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -1779,7 +1759,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1773,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1805,7 +1785,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1819,7 +1799,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1815,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1853,7 +1833,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="F12" t="s">
         <v>63</v>
       </c>
@@ -1867,14 +1847,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
@@ -1886,7 +1866,7 @@
     <col min="17" max="17" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="36">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1939,7 +1919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="32" t="s">
         <v>62</v>
       </c>
@@ -1992,7 +1972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="2" t="s">
@@ -2041,7 +2021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
@@ -2090,7 +2070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="34"/>
       <c r="B5" s="34"/>
       <c r="C5" s="2" t="s">
@@ -2150,14 +2130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="13" customWidth="1"/>
@@ -2173,7 +2153,7 @@
     <col min="18" max="18" width="39" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="45" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2229,7 +2209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2261,7 +2241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="49.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2309,7 +2289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="39" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2359,7 +2339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="48.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2405,7 +2385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="44.25" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>61</v>
       </c>
@@ -2455,13 +2435,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="C9" s="22"/>
       <c r="D9" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="C10" s="24"/>
       <c r="D10" s="23" t="s">
         <v>60</v>
